--- a/ДЗ2/intense_matrix.xlsx
+++ b/ДЗ2/intense_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitakrylov/Desktop/АМиИМнаСУ/ДЗ2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DB9C09-631C-A54E-B3F8-38334A4E9F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA93F9AD-C541-1847-9FD8-11FDD1890231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{8DC24E15-DE43-3449-BD58-FD300F9D59CE}"/>
   </bookViews>
@@ -46,12 +46,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,74 +389,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE88819-EA86-724B-A2A7-6993C319C16A}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>10</v>
-      </c>
-      <c r="C1">
-        <v>10</v>
-      </c>
-      <c r="D1">
-        <v>0</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>0</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>0</v>
-      </c>
-      <c r="M1">
-        <v>0</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -481,10 +493,13 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0</v>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -528,10 +543,13 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>0</v>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -546,13 +564,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -575,10 +593,13 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>0</v>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -622,10 +643,13 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>0</v>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -652,58 +676,61 @@
         <v>10</v>
       </c>
       <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
       <c r="L7">
         <v>0</v>
       </c>
@@ -716,10 +743,13 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>0</v>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -749,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -763,10 +793,13 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>0</v>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -802,65 +835,71 @@
         <v>10</v>
       </c>
       <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0</v>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -904,10 +943,13 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0</v>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -943,65 +985,71 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
         <v>5</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>0</v>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1045,10 +1093,13 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0</v>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1090,6 +1141,59 @@
         <v>0</v>
       </c>
       <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
     </row>
